--- a/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
@@ -2948,7 +2948,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>106302</xdr:colOff>
+      <xdr:colOff>1527</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>110075</xdr:rowOff>
     </xdr:to>
@@ -2990,8 +2990,8 @@
       <xdr:rowOff>7647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>862293</xdr:colOff>
       <xdr:row>282</xdr:row>
       <xdr:rowOff>95704</xdr:rowOff>
     </xdr:to>
@@ -3033,8 +3033,8 @@
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>108777</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>689802</xdr:colOff>
       <xdr:row>189</xdr:row>
       <xdr:rowOff>194956</xdr:rowOff>
     </xdr:to>
@@ -5070,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L316"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5079,7 +5079,9 @@
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="49.75" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="19.75" customWidth="1"/>
     <col min="12" max="12" width="56.75" customWidth="1"/>
     <col min="14" max="14" width="17.125" customWidth="1"/>

--- a/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -5070,7 +5070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L316"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
@@ -6365,8 +6365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="362">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1191,14 +1191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1, ui출력 내용추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 데이터를 어떻게 넘겨줄건지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Annihilation_Mon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1259,10 +1251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수치를 몇 스테이지 동안 지속해서 올려주는 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.미션 진행 순서도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1279,18 +1267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 쿨타임 -2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>변신 회복율 + 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1463,15 +1439,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>SpawnTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>LimitTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SpawnTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitTime</t>
+    <t>수치를 영구적으로 올려주는 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 쿨타임 - 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 + 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 계수 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 최대치 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 계수 + 20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력 + 150</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1694,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1789,6 +1793,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3713,10 +3723,10 @@
         <v>43669</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3725,10 +3735,10 @@
         <v>43689</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4040,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4786,12 +4796,12 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5055,7 +5065,7 @@
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5070,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L316"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView showGridLines="0" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5264,10 +5274,10 @@
         <v>148</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
@@ -5283,7 +5293,7 @@
         <v>157</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G32" s="29">
         <v>180</v>
@@ -5305,7 +5315,7 @@
         <v>158</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
@@ -5321,7 +5331,7 @@
         <v>156</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="24"/>
@@ -5337,30 +5347,30 @@
         <v>156</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>252</v>
@@ -5369,7 +5379,7 @@
         <v>156</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -5379,13 +5389,13 @@
         <v>254</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
@@ -5422,7 +5432,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>232</v>
@@ -5434,7 +5444,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>233</v>
@@ -5445,7 +5455,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>165</v>
@@ -5456,7 +5466,7 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>250</v>
@@ -5570,21 +5580,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B108" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B109" s="27"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="23" t="s">
         <v>159</v>
       </c>
       <c r="C110" s="24"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="5" t="s">
         <v>11</v>
       </c>
@@ -5597,14 +5607,8 @@
       <c r="E111" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G111" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
         <v>253</v>
       </c>
@@ -5616,12 +5620,6 @@
       </c>
       <c r="E112" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="G112" s="29">
-        <v>180</v>
-      </c>
-      <c r="H112" s="29">
-        <v>10</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
@@ -5657,7 +5655,7 @@
         <v>255</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>156</v>
@@ -5696,10 +5694,10 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>156</v>
@@ -5773,17 +5771,17 @@
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
@@ -5796,7 +5794,7 @@
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
@@ -5811,32 +5809,32 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
@@ -5851,7 +5849,7 @@
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
@@ -5871,7 +5869,7 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
@@ -5881,7 +5879,7 @@
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
@@ -5891,7 +5889,7 @@
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
@@ -5927,10 +5925,10 @@
         <v>148</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.3">
@@ -6014,7 +6012,7 @@
         <v>254</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>156</v>
@@ -6111,7 +6109,7 @@
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
@@ -6121,7 +6119,7 @@
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.3">
@@ -6139,7 +6137,7 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
@@ -6159,27 +6157,27 @@
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="25" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="25" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="25" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
@@ -6202,12 +6200,12 @@
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
@@ -6222,7 +6220,7 @@
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
@@ -6363,16 +6361,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="44" customWidth="1"/>
@@ -6393,7 +6391,7 @@
         <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -6409,7 +6407,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>209</v>
@@ -6431,10 +6429,10 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K9" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -6442,10 +6440,10 @@
         <v>10</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -6465,43 +6463,40 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="K24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>212</v>
       </c>
@@ -6514,11 +6509,8 @@
       <c r="E25" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="K25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>227</v>
       </c>
@@ -6528,12 +6520,12 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>212</v>
       </c>
@@ -6547,12 +6539,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6562,7 +6554,7 @@
         <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6572,20 +6564,40 @@
         <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6727,7 +6739,7 @@
     </row>
     <row r="157" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B157" s="27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6741,8 +6753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -1789,16 +1789,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2848,13 +2848,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>52450</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2891,13 +2891,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>8404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2957,8 +2957,8 @@
       <xdr:rowOff>7791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1527</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1039752</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>110075</xdr:rowOff>
     </xdr:to>
@@ -2996,13 +2996,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>7647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>862293</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:colOff>576543</xdr:colOff>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>95704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3044,7 +3044,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>689802</xdr:colOff>
+      <xdr:colOff>404052</xdr:colOff>
       <xdr:row>189</xdr:row>
       <xdr:rowOff>194956</xdr:rowOff>
     </xdr:to>
@@ -3876,42 +3876,42 @@
       <c r="K30" s="26"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="32"/>
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="32"/>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="30"/>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="C35" s="30"/>
+      <c r="C35" s="32"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="33"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
@@ -3919,16 +3919,16 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="33"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
@@ -3961,34 +3961,34 @@
       <c r="C44" s="26"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="32"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="32"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="30"/>
+      <c r="C47" s="32"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C48" s="30"/>
+      <c r="C48" s="32"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C49" s="30"/>
+      <c r="C49" s="32"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
@@ -4003,22 +4003,22 @@
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="C52" s="30"/>
+      <c r="C52" s="32"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="30"/>
+      <c r="C53" s="32"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="C54" s="30"/>
+      <c r="C54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5078,17 +5078,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L316"/>
+  <dimension ref="B2:L317"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A170" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G242" sqref="G242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="49.75" customWidth="1"/>
+    <col min="3" max="3" width="53.5" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="12.375" customWidth="1"/>
@@ -6155,199 +6155,199 @@
         <v>189</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="8" t="s">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="8" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="25" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="25" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="25"/>
-    </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="25"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="8" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" s="8" t="s">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="8" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="8" t="s">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="8" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" s="1" t="s">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B293" t="s">
+    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C294" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="295" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C297" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C298" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="299" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C299" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C300" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="301" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C301" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="302" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C302" t="s">
-        <v>81</v>
-      </c>
-      <c r="K302" s="1" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="303" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C303" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C304" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C306" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C308" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C310" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C311" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C314" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C315" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C316" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6580,20 +6580,20 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="31" t="s">
         <v>360</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>361</v>
       </c>
       <c r="D37" s="1"/>
@@ -6753,8 +6753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
